--- a/Documentos/Tabela-5W2H.xlsx
+++ b/Documentos/Tabela-5W2H.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Projeto-integrador-SM-1\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xboxj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E4D716-0E2C-4E7D-9990-886A4BC0E45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B9AF8-138A-4811-BB7A-1CB88A9D99F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5W2H" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>Plano de Ação 5W2H</t>
   </si>
@@ -130,12 +130,6 @@
     <t xml:space="preserve">Construção da primeira parte do relatório </t>
   </si>
   <si>
-    <t xml:space="preserve">Apresentação para o prof Rubens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação mais detalhada </t>
-  </si>
-  <si>
     <t xml:space="preserve">Apresentar para o cliente o que o grupo desenvolveu </t>
   </si>
   <si>
@@ -437,9 +431,6 @@
   </si>
   <si>
     <t>Levantamendos fundamentais da API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar os pontos do projeto que precisam de alteração e observações sobre o que foi montado </t>
   </si>
   <si>
     <t xml:space="preserve">Conferição do relatório com a Prof Lindinha </t>
@@ -572,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -616,43 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color theme="4"/>
       </left>
@@ -678,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,15 +656,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,13 +668,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,54 +688,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.59996337778862885"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color theme="4"/>
-        </left>
-        <right style="hair">
-          <color theme="4"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.59996337778862885"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color theme="4"/>
-        </left>
-        <right style="hair">
-          <color theme="4"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -962,6 +859,54 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="4"/>
+        </left>
+        <right style="hair">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="4"/>
+        </left>
+        <right style="hair">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -976,16 +921,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A6:G63" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A6:G63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A6:G62" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A6:G62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="O que" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Como" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quem" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Início" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fim" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Por que" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Situação Atual" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="O que" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Como" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quem" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Início" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fim" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Por que" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Situação Atual" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,22 +1268,22 @@
     <col min="1" max="1" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1346,25 +1291,25 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>45056</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>45089</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1374,10 +1319,10 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1387,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1395,49 +1340,47 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="12">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9">
         <v>45008</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>45019</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>44999</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>45000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1445,23 +1388,22 @@
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>45008</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>45019</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -1469,21 +1411,20 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>45008</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>45019</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1491,24 +1432,24 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="12">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9">
         <v>45008</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>45019</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1516,43 +1457,43 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>45001</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>45003</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12">
+        <v>54</v>
+      </c>
+      <c r="D13" s="9">
         <v>45003</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>45012</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1562,20 +1503,20 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>45008</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>45008</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1585,18 +1526,20 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>45009</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="9">
+        <v>45010</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1606,59 +1549,63 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>45009</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>45016</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="9">
+        <v>45001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>45019</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="16">
-        <v>45001</v>
-      </c>
-      <c r="E18" s="16">
-        <v>45019</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="13">
+        <v>45013</v>
+      </c>
+      <c r="E18" s="13">
+        <v>45014</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>50</v>
+      <c r="G18" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1666,1066 +1613,1034 @@
         <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12">
-        <v>45013</v>
-      </c>
-      <c r="E19" s="12">
-        <v>45014</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="9">
+        <v>45009</v>
+      </c>
+      <c r="E19" s="9">
+        <v>45009</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="16">
-        <v>45009</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45009</v>
+      <c r="D20" s="13">
+        <v>45015</v>
+      </c>
+      <c r="E20" s="13">
+        <v>45015</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="9">
+        <v>45014</v>
+      </c>
+      <c r="E21" s="9">
+        <v>45016</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="13">
+        <v>45008</v>
+      </c>
+      <c r="E22" s="13">
+        <v>45016</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12">
-        <v>45015</v>
-      </c>
-      <c r="E21" s="12">
-        <v>45015</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="16">
-        <v>45014</v>
-      </c>
-      <c r="E22" s="16">
-        <v>45016</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>50</v>
+      <c r="G22" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="12">
-        <v>45008</v>
-      </c>
-      <c r="E23" s="12">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45015</v>
+      </c>
+      <c r="E23" s="9">
         <v>45016</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="13">
+        <v>45015</v>
+      </c>
+      <c r="E24" s="13">
+        <v>45016</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="16">
-        <v>45015</v>
-      </c>
-      <c r="E24" s="16">
-        <v>45016</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>50</v>
+      <c r="G24" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="12">
-        <v>45015</v>
-      </c>
-      <c r="E25" s="12">
-        <v>45016</v>
+        <v>30</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45029</v>
+      </c>
+      <c r="E25" s="9">
+        <v>45029</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>50</v>
+        <v>113</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="16">
-        <v>45029</v>
-      </c>
-      <c r="E26" s="16">
-        <v>45029</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45057</v>
+      </c>
+      <c r="E26" s="13">
+        <v>45057</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>50</v>
+        <v>148</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="12">
-        <v>45057</v>
-      </c>
-      <c r="E27" s="12">
-        <v>45096</v>
+        <v>65</v>
+      </c>
+      <c r="D27" s="9">
+        <v>45019</v>
+      </c>
+      <c r="E27" s="9">
+        <v>45027</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="16">
-        <v>45019</v>
-      </c>
-      <c r="E28" s="16">
-        <v>45027</v>
+        <v>54</v>
+      </c>
+      <c r="D28" s="13">
+        <v>45028</v>
+      </c>
+      <c r="E28" s="13">
+        <v>45028</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="12">
+        <v>54</v>
+      </c>
+      <c r="D29" s="9">
         <v>45028</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>45028</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>50</v>
+      <c r="G29" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="16">
-        <v>45028</v>
-      </c>
-      <c r="E30" s="16">
-        <v>45028</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="13">
+        <v>45030</v>
+      </c>
+      <c r="E30" s="13">
+        <v>45030</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
+        <v>45028</v>
+      </c>
+      <c r="E31" s="9">
         <v>45030</v>
       </c>
-      <c r="E31" s="12">
-        <v>45030</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="13">
+        <v>45030</v>
+      </c>
+      <c r="E32" s="13">
+        <v>45030</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="16">
-        <v>45028</v>
-      </c>
-      <c r="E32" s="16">
-        <v>45030</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>50</v>
+      <c r="G32" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="12">
+        <v>54</v>
+      </c>
+      <c r="D33" s="9">
         <v>45030</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>45030</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>50</v>
+      <c r="G33" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="16">
+        <v>72</v>
+      </c>
+      <c r="D34" s="13">
         <v>45030</v>
       </c>
-      <c r="E34" s="16">
-        <v>45030</v>
+      <c r="E34" s="13">
+        <v>45039</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="12">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9">
         <v>45030</v>
       </c>
-      <c r="E35" s="12">
-        <v>45039</v>
+      <c r="E35" s="9">
+        <v>45030</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="16">
+        <v>94</v>
+      </c>
+      <c r="D36" s="13">
         <v>45030</v>
       </c>
-      <c r="E36" s="16">
-        <v>45030</v>
+      <c r="E36" s="13">
+        <v>45036</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="12">
-        <v>45030</v>
-      </c>
-      <c r="E37" s="12">
-        <v>45036</v>
+        <v>26</v>
+      </c>
+      <c r="D37" s="9">
+        <v>45040</v>
+      </c>
+      <c r="E37" s="9">
+        <v>45040</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="16">
-        <v>45019</v>
-      </c>
-      <c r="E38" s="16">
+        <v>100</v>
+      </c>
+      <c r="D38" s="13">
         <v>45040</v>
       </c>
+      <c r="E38" s="13">
+        <v>45040</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="12">
-        <v>45040</v>
-      </c>
-      <c r="E39" s="12">
-        <v>45040</v>
+        <v>72</v>
+      </c>
+      <c r="D39" s="9">
+        <v>45044</v>
+      </c>
+      <c r="E39" s="9">
+        <v>45044</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="16">
-        <v>45044</v>
-      </c>
-      <c r="E40" s="16">
-        <v>45044</v>
+        <v>26</v>
+      </c>
+      <c r="D40" s="13">
+        <v>45027</v>
+      </c>
+      <c r="E40" s="13">
+        <v>45027</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>50</v>
+        <v>107</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="12">
+      <c r="D41" s="9">
         <v>45027</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>45027</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="16">
-        <v>45027</v>
-      </c>
-      <c r="E42" s="16">
-        <v>45027</v>
+        <v>130</v>
+      </c>
+      <c r="D42" s="13">
+        <v>45070</v>
+      </c>
+      <c r="E42" s="13">
+        <v>45075</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>50</v>
+        <v>145</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="12">
-        <v>45030</v>
-      </c>
-      <c r="E43" s="12">
-        <v>45075</v>
+        <v>26</v>
+      </c>
+      <c r="D43" s="9">
+        <v>45036</v>
+      </c>
+      <c r="E43" s="9">
+        <v>45036</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="16">
-        <v>45036</v>
-      </c>
-      <c r="E44" s="16">
-        <v>45036</v>
+        <v>133</v>
+      </c>
+      <c r="D44" s="13">
+        <v>45042</v>
+      </c>
+      <c r="E44" s="13">
+        <v>45042</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>50</v>
+        <v>134</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="12">
-        <v>45042</v>
-      </c>
-      <c r="E45" s="12">
-        <v>45042</v>
+        <v>26</v>
+      </c>
+      <c r="D45" s="9">
+        <v>45050</v>
+      </c>
+      <c r="E45" s="9">
+        <v>45050</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="13">
         <v>45050</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="13">
         <v>45050</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>50</v>
+        <v>142</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="12">
-        <v>45050</v>
-      </c>
-      <c r="E47" s="12">
-        <v>45050</v>
+      <c r="D47" s="9">
+        <v>45051</v>
+      </c>
+      <c r="E47" s="9">
+        <v>45058</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="16">
-        <v>45051</v>
-      </c>
-      <c r="E48" s="16">
-        <v>45058</v>
+        <v>106</v>
+      </c>
+      <c r="D48" s="13">
+        <v>45053</v>
+      </c>
+      <c r="E48" s="13">
+        <v>45053</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>50</v>
+        <v>144</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="12">
-        <v>45053</v>
-      </c>
-      <c r="E49" s="12">
-        <v>45053</v>
+        <v>26</v>
+      </c>
+      <c r="D49" s="9">
+        <v>45054</v>
+      </c>
+      <c r="E49" s="9">
+        <v>45054</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>50</v>
+        <v>121</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="16">
+        <v>54</v>
+      </c>
+      <c r="D50" s="13">
         <v>45054</v>
       </c>
-      <c r="E50" s="16">
-        <v>45054</v>
+      <c r="E50" s="13">
+        <v>45061</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="12">
-        <v>45054</v>
-      </c>
-      <c r="E51" s="12">
-        <v>45061</v>
+        <v>96</v>
+      </c>
+      <c r="D51" s="9">
+        <v>45058</v>
+      </c>
+      <c r="E51" s="9">
+        <v>45062</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G51" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="16">
-        <v>45058</v>
-      </c>
-      <c r="E52" s="16">
-        <v>45062</v>
+        <v>54</v>
+      </c>
+      <c r="D52" s="13">
+        <v>45061</v>
+      </c>
+      <c r="E52" s="13">
+        <v>45061</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="12">
+        <v>26</v>
+      </c>
+      <c r="D53" s="9">
         <v>45061</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="9">
         <v>45061</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="16">
-        <v>45061</v>
-      </c>
-      <c r="E54" s="16">
-        <v>45061</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="D55" s="9">
+        <v>45069</v>
+      </c>
+      <c r="E55" s="9">
+        <v>45069</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="16">
+        <v>30</v>
+      </c>
+      <c r="D56" s="13">
         <v>45069</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="13">
         <v>45069</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>50</v>
+        <v>110</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="12">
-        <v>45069</v>
-      </c>
-      <c r="E57" s="12">
-        <v>45008</v>
+        <v>26</v>
+      </c>
+      <c r="D57" s="9">
+        <v>45089</v>
+      </c>
+      <c r="E57" s="9">
+        <v>45089</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="16">
-        <v>45075</v>
-      </c>
-      <c r="E58" s="16">
-        <v>45089</v>
+        <v>30</v>
+      </c>
+      <c r="D58" s="13">
+        <v>45069</v>
+      </c>
+      <c r="E58" s="13">
+        <v>45069</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="9">
         <v>45069</v>
       </c>
-      <c r="E59" s="12">
-        <v>45008</v>
+      <c r="E59" s="9">
+        <v>45069</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="16">
-        <v>45069</v>
-      </c>
-      <c r="E60" s="16">
-        <v>45069</v>
+        <v>126</v>
+      </c>
+      <c r="D60" s="13">
+        <v>45071</v>
+      </c>
+      <c r="E60" s="13">
+        <v>45071</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>50</v>
+        <v>127</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="12">
-        <v>45071</v>
-      </c>
-      <c r="E61" s="12">
-        <v>45071</v>
+        <v>97</v>
+      </c>
+      <c r="D61" s="9">
+        <v>45079</v>
+      </c>
+      <c r="E61" s="9">
+        <v>45080</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>50</v>
+        <v>147</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="16">
-        <v>45074</v>
-      </c>
-      <c r="E62" s="16">
+        <v>30</v>
+      </c>
+      <c r="D62" s="13">
+        <v>45078</v>
+      </c>
+      <c r="E62" s="13">
         <v>45085</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>50</v>
+        <v>151</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="12">
-        <v>45078</v>
-      </c>
-      <c r="E63" s="12">
-        <v>45085</v>
+        <v>126</v>
+      </c>
+      <c r="D63" s="9">
+        <v>45082</v>
+      </c>
+      <c r="E63" s="9">
+        <v>45082</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="12">
-        <v>45082</v>
-      </c>
-      <c r="E64" s="12">
-        <v>45082</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>50</v>
+      <c r="G63" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7:G58">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="33"/>
-        <cfvo type="num" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G64">
+  <conditionalFormatting sqref="G58:G63">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2734,12 +2649,20 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G57">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="33"/>
+        <cfvo type="num" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations xWindow="252" yWindow="534" count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Como fazer?" prompt="Detalhamento da medida a ser tomada. Tente pensar em todas as possibilidades." sqref="A9 B13:C18 B9:C11 B22:C22" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="O que fazer?" prompt="Tente executar ações que combatam a causa do problema e não o efeito." sqref="A12:A18 A22" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Por que fazer?" prompt="Qual a justificativa para a execução da ação. Tente ser convincente." sqref="F9:F18 F22" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas acima de 01/01/1900 são permitidos." promptTitle="Quando? Início" prompt="Data prevista para início da ação." sqref="D9:D18" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quem irá fazer?" prompt="Nome do responsável pela execução da ação. Coloque sempre o nome, e não o setor ou departamento. Caso seja uma equipe que irá executar a ação, digite aqui o líder da equipe." sqref="C9:C18 C22" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Como fazer?" prompt="Detalhamento da medida a ser tomada. Tente pensar em todas as possibilidades." sqref="A9 B9:C11 B21:C21 B13:C17" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="O que fazer?" prompt="Tente executar ações que combatam a causa do problema e não o efeito." sqref="A21 A12:A17" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Por que fazer?" prompt="Qual a justificativa para a execução da ação. Tente ser convincente." sqref="F21 F9:F17" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quem irá fazer?" prompt="Nome do responsável pela execução da ação. Coloque sempre o nome, e não o setor ou departamento. Caso seja uma equipe que irá executar a ação, digite aqui o líder da equipe." sqref="C21 C9:C17" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Indicador" prompt="Nome (e preferencialmente fórmula) do indicador para acompanhamento do alcance do objetivo." sqref="F4" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Objetivo" prompt="Objetivo ao qual o plano está relacionado. Todas as ações descritas no plano devem ter um objetivo comum." sqref="F3" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data da revisão do plano" prompt="Digite aqui a última data na qual o plano foi revisto. Faça reuniões periódicas para atualizar o percentual completo das ações." sqref="B4:C5" xr:uid="{00000000-0002-0000-0100-000007000000}">
@@ -2750,13 +2673,14 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsável da revisão do plano" prompt="Nome do responsável por fazer a revisão do plano e coordenar as reuniões de avaliação." sqref="C4:E4" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsável da criação do plano" prompt="Nome do responsável pela criação do plano. Geralmente este é o responsável pelo Objetivo a ser alcançado." sqref="C3:E3" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas maiores que a data de início são permitidos." promptTitle="Quando? Fim" prompt="Data prevista para término da ação." sqref="E9:E18" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas maiores que a data de início são permitidos." promptTitle="Quando? Fim" prompt="Data prevista para término da ação." sqref="C21 C9:C17" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+      <formula1>E9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas acima de 01/01/1900 são permitidos." promptTitle="Quando? Início" prompt="Data prevista para início da ação." sqref="D9:D17" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas maiores que a data de início são permitidos." promptTitle="Quando? Fim" prompt="Data prevista para término da ação." sqref="E9:E17" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>D9</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Apenas valores de datas maiores que a data de início são permitidos." promptTitle="Quando? Fim" prompt="Data prevista para término da ação." sqref="C9:C18 C22" xr:uid="{00000000-0002-0000-0100-00000C000000}">
-      <formula1>E9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Situação atual" prompt="A partir das datas previstas de início e fim e do percentual completo para a ação a planilha calcula qual a situação atual de cada ação. Ações com um X vermelho exigem atenção urgente." sqref="G7:G64" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Situação atual" prompt="A partir das datas previstas de início e fim e do percentual completo para a ação a planilha calcula qual a situação atual de cada ação. Ações com um X vermelho exigem atenção urgente." sqref="G7:G63" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2767,23 +2691,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003CDC088E91B7B458FBBC19243B3CE6D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb839098e34b314204ef5ef4b08475a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95" xmlns:ns4="4de7c270-6a9a-4f77-a137-a75794337775" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44e20ea50f068a1a9a189ec19e2f5b02" ns3:_="" ns4:_="">
     <xsd:import namespace="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95"/>
@@ -2998,10 +2905,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54471A0C-E696-4C22-91AF-E56518E4B65A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2B5C5B4-55B5-47E3-AA6F-86CF59A6E80C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95"/>
+    <ds:schemaRef ds:uri="4de7c270-6a9a-4f77-a137-a75794337775"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3024,21 +2960,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2B5C5B4-55B5-47E3-AA6F-86CF59A6E80C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54471A0C-E696-4C22-91AF-E56518E4B65A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="6f23d5df-3e52-48ad-9f94-a8ecf1e6ea95"/>
-    <ds:schemaRef ds:uri="4de7c270-6a9a-4f77-a137-a75794337775"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>